--- a/public/data/passport_import.xlsx
+++ b/public/data/passport_import.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="156">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -37,10 +37,7 @@
     <t xml:space="preserve">Qualification</t>
   </si>
   <si>
-    <t xml:space="preserve">Dat of Brith</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address In Myanmar</t>
+    <t xml:space="preserve">Dat of Birth</t>
   </si>
   <si>
     <t xml:space="preserve">Passport No</t>
@@ -79,15 +76,9 @@
     <t xml:space="preserve">Son</t>
   </si>
   <si>
-    <t xml:space="preserve">Son Age</t>
-  </si>
-  <si>
     <t xml:space="preserve">Daughter</t>
   </si>
   <si>
-    <t xml:space="preserve">Daughter Age</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mother Name</t>
   </si>
   <si>
@@ -100,7 +91,7 @@
     <t xml:space="preserve">Working Experience</t>
   </si>
   <si>
-    <t xml:space="preserve">Address Line One</t>
+    <t xml:space="preserve">Address</t>
   </si>
   <si>
     <t xml:space="preserve">Phone</t>
@@ -118,18 +109,9 @@
     <t xml:space="preserve">NRC Of Heir</t>
   </si>
   <si>
-    <t xml:space="preserve">Passport Cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car Charges</t>
-  </si>
-  <si>
     <t xml:space="preserve">Passport Register</t>
   </si>
   <si>
-    <t xml:space="preserve">Leader</t>
-  </si>
-  <si>
     <t xml:space="preserve">Labour Card No</t>
   </si>
   <si>
@@ -157,85 +139,355 @@
     <t xml:space="preserve">Remark</t>
   </si>
   <si>
-    <t xml:space="preserve">Mg Mg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/abc(N)009221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U Mg Mg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.1995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yangon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MF615425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120kg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Single</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daw Mya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burmese / Buddhis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U Mya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Untrne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/abc(B)009332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U Mya Soe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YGN/KTD3564710</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YGNOW00001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IYGN000292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U Mg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No Remark</t>
+    <t xml:space="preserve">Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daw Soe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/BaMaNa(N)223445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME00092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUNGLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aung Soe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZIN MAR HLAING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8/AhLaNa(N)241781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001.12.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MF 771391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02.04.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LETPANDAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20Yar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KHAING KHAING AYE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/LaPATa(N)157403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1990.7.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG 347410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.08.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KYAUKPADAUNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32Yar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AYE AYE AUNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/KaPaTa(N)320436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1998.7.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MF 713757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09.03.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YANGON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24Yar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HNIN THANDAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/DaSaKa(N)032200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1993.4.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG 035022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.06.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29Yar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THU ZAR KHAING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/LaPATa(N)180407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1993.12.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG 363843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.08.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28Yar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIN ZAR LWIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/LaPATa(N)162442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1994.5.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MF 044898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.02.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WAR WAR TUN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/DaGaTa(N)096010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1997.12.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MF 713756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LWIN LWIN AUNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/MaYaKa(N)178550</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1994.7.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG 426638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05.09.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THAZIN HTAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/MaKhaNa(N)191797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1986.4.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG 508047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.09.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36Yar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAY ZULY MOY NWE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/PaBaTha(N)037376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1996.7.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG 692020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.10.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26Yar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NI NI NAING MOE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/YaTaYa(N)147844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1988.9.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG 496870</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.09.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34Yar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MYAT NO THU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/HtaTaPa(N)090315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1989.10.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MF 688494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.02.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33Yar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIN WIN KYAW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/LaMaNa(N)175907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001.8.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG 346895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21Yar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KHIN HNIN WAI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/ThaHtaNa(N)215098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1992.8.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG 553969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.09.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30Yar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAN SEIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/HtaTaPa(N)110451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1999.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MF 707183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04.03.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23Yar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EI THU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/HtaTaPa(N)140289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004.1.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG 704724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18Yar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EI THIDAR WIN TUN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/PaTaTa(N)108876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1990.4.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG 780237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04.11.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THWET THWET SAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/TaMaNa(N)107990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1992.6.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG 386365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.08.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LWIN LWIN AYE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/PaKhaNa(N)381628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1995.1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG757514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.03.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27Yar</t>
   </si>
 </sst>
 </file>
@@ -311,8 +563,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -329,21 +585,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AS2"/>
+  <dimension ref="A1:AN21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AF1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AJ2" activeCellId="0" sqref="AJ2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.83203125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="17.41015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="23.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="19.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -467,154 +721,702 @@
       <c r="AN1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="0" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>34439</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>45043</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL2" s="0" t="n">
+        <v>45045</v>
+      </c>
+      <c r="AN2" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="B3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="F2" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H3" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="M2" s="0" t="s">
+      <c r="K3" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="AK3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL3" s="0" t="n">
+        <v>45028</v>
+      </c>
+      <c r="AN3" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="B4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="P2" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="R2" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="S2" s="0" t="s">
+      <c r="G4" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="T2" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="U2" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="V2" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="W2" s="0" t="s">
+      <c r="H4" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="X2" s="0" t="s">
+      <c r="J4" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="Y2" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z2" s="0" t="s">
+      <c r="K4" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="AA2" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB2" s="0" t="n">
-        <v>9555161776</v>
-      </c>
-      <c r="AC2" s="0" t="n">
-        <v>9877387736</v>
-      </c>
-      <c r="AD2" s="0" t="s">
+      <c r="AK4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL4" s="0" t="n">
+        <v>45028</v>
+      </c>
+      <c r="AN4" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="AE2" s="0" t="s">
+      <c r="B5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="AF2" s="0" t="s">
+      <c r="F5" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="AG2" s="0" t="n">
-        <v>150000</v>
-      </c>
-      <c r="AH2" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="AI2" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ2" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="AK2" s="0" t="s">
+      <c r="H5" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="AL2" s="0" t="s">
+      <c r="J5" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="AM2" s="0" t="s">
+      <c r="K5" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="AN2" s="0" t="s">
+      <c r="AK5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL5" s="0" t="n">
+        <v>45028</v>
+      </c>
+      <c r="AN5" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL6" s="0" t="n">
+        <v>45028</v>
+      </c>
+      <c r="AN6" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL7" s="0" t="n">
+        <v>45028</v>
+      </c>
+      <c r="AN7" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="AO2" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="AP2" s="0" t="s">
+      <c r="K8" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK8" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL8" s="0" t="n">
+        <v>45028</v>
+      </c>
+      <c r="AN8" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="AQ2" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="AR2" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="AS2" s="0" t="s">
-        <v>71</v>
+      <c r="K9" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK9" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL9" s="0" t="n">
+        <v>45028</v>
+      </c>
+      <c r="AN9" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL10" s="0" t="n">
+        <v>45028</v>
+      </c>
+      <c r="AN10" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL11" s="0" t="n">
+        <v>45026</v>
+      </c>
+      <c r="AN11" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK12" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL12" s="0" t="n">
+        <v>45026</v>
+      </c>
+      <c r="AN12" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK13" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL13" s="0" t="n">
+        <v>45026</v>
+      </c>
+      <c r="AN13" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK14" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL14" s="0" t="n">
+        <v>45026</v>
+      </c>
+      <c r="AN14" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK15" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL15" s="0" t="n">
+        <v>45025</v>
+      </c>
+      <c r="AN15" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK16" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL16" s="0" t="n">
+        <v>45025</v>
+      </c>
+      <c r="AN16" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK17" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL17" s="0" t="n">
+        <v>45025</v>
+      </c>
+      <c r="AN17" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK18" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL18" s="0" t="n">
+        <v>45025</v>
+      </c>
+      <c r="AN18" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK19" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL19" s="0" t="n">
+        <v>45025</v>
+      </c>
+      <c r="AN19" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK20" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL20" s="0" t="n">
+        <v>45025</v>
+      </c>
+      <c r="AN20" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK21" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL21" s="0" t="n">
+        <v>45025</v>
+      </c>
+      <c r="AN21" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
